--- a/antoinetteExamEvalution/TestData/Input/TestCaseInput.xlsx
+++ b/antoinetteExamEvalution/TestData/Input/TestCaseInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutoProgram\antoinetteExamEvalution\antoinetteExamEvalution\TestData\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E3FB276-95B2-4A75-93F2-8F83F510A8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE33739B-0A74-45F8-8F38-7BA44BA8C3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7A35779E-B142-499F-89EC-F0C7F964E365}"/>
   </bookViews>
@@ -32,6 +32,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,12 +401,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD39826D-850B-47AA-88A2-C6F6AD372368}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/antoinetteExamEvalution/TestData/Input/TestCaseInput.xlsx
+++ b/antoinetteExamEvalution/TestData/Input/TestCaseInput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AutoProgram\antoinetteExamEvalution\antoinetteExamEvalution\TestData\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE33739B-0A74-45F8-8F38-7BA44BA8C3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B018CB-8D3B-4C36-BBC3-D2093B7C0A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7A35779E-B142-499F-89EC-F0C7F964E365}"/>
   </bookViews>
@@ -40,16 +40,16 @@
     <t>Books</t>
   </si>
   <si>
-    <t>Electronics</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Quantity</t>
+    <t>Jewelry</t>
   </si>
   <si>
-    <t>Jewelry</t>
+    <t>Apparel &amp; Shoes</t>
+  </si>
+  <si>
+    <t>Record to Retrieve</t>
   </si>
 </sst>
 </file>
@@ -404,17 +404,17 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -427,18 +427,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
